--- a/2000_Furusawa/data/raw/C12V79.xlsx
+++ b/2000_Furusawa/data/raw/C12V79.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,8 +222,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,7 +247,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>182</v>
+        <v>182.1</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>96.9</v>
@@ -259,7 +261,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>206</v>
+        <v>205.821</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>110</v>
@@ -273,7 +275,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>232</v>
+        <v>232.1</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>124</v>
@@ -287,7 +289,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>255</v>
+        <v>254.7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>136</v>
@@ -315,7 +317,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>360</v>
+        <v>359.5</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>193</v>
@@ -329,7 +331,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>417</v>
+        <v>416.6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>225</v>
@@ -357,7 +359,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>493</v>
+        <v>493.06</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>268</v>
@@ -371,7 +373,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>502</v>
+        <v>501.5</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>273</v>
